--- a/modules/G/SyllableCount.xlsx
+++ b/modules/G/SyllableCount.xlsx
@@ -461,10 +461,10 @@
         <v>2964</v>
       </c>
       <c r="D2" t="n">
-        <v>1419</v>
+        <v>6021</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01045883940620783</v>
+        <v>0.04284750337381917</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         <v>420</v>
       </c>
       <c r="D3" t="n">
-        <v>166</v>
+        <v>715</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03571428571428571</v>
+        <v>-0.1452380952380952</v>
       </c>
     </row>
     <row r="4">
@@ -499,10 +499,10 @@
         <v>1876</v>
       </c>
       <c r="D4" t="n">
-        <v>838</v>
+        <v>3766</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02825159914712154</v>
+        <v>-0.1130063965884861</v>
       </c>
     </row>
     <row r="5">
@@ -518,10 +518,10 @@
         <v>802</v>
       </c>
       <c r="D5" t="n">
-        <v>326</v>
+        <v>1409</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02493765586034913</v>
+        <v>-0.1034912718204489</v>
       </c>
     </row>
     <row r="6">
@@ -537,10 +537,10 @@
         <v>2173</v>
       </c>
       <c r="D6" t="n">
-        <v>852</v>
+        <v>3660</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04371836171191901</v>
+        <v>-0.1753336401288541</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>1887</v>
       </c>
       <c r="D7" t="n">
-        <v>814</v>
+        <v>3358</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0296767355590885</v>
+        <v>-0.1197668256491786</v>
       </c>
     </row>
     <row r="8">
@@ -575,10 +575,10 @@
         <v>1849</v>
       </c>
       <c r="D8" t="n">
-        <v>735</v>
+        <v>3207</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02109248242293131</v>
+        <v>-0.08436992969172526</v>
       </c>
     </row>
     <row r="9">
@@ -594,10 +594,10 @@
         <v>2030</v>
       </c>
       <c r="D9" t="n">
-        <v>884</v>
+        <v>3827</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009852216748768473</v>
+        <v>-0.04039408866995074</v>
       </c>
     </row>
     <row r="10">
@@ -613,10 +613,10 @@
         <v>980</v>
       </c>
       <c r="D10" t="n">
-        <v>387</v>
+        <v>1611</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009183673469387756</v>
+        <v>0.03775510204081633</v>
       </c>
     </row>
     <row r="11">
@@ -632,10 +632,10 @@
         <v>1482</v>
       </c>
       <c r="D11" t="n">
-        <v>618</v>
+        <v>2574</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02496626180836707</v>
+        <v>-0.1005398110661269</v>
       </c>
     </row>
     <row r="12">
@@ -651,10 +651,10 @@
         <v>1015</v>
       </c>
       <c r="D12" t="n">
-        <v>441</v>
+        <v>1824</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.06403940886699508</v>
+        <v>-0.2561576354679803</v>
       </c>
     </row>
     <row r="13">
@@ -670,10 +670,10 @@
         <v>473</v>
       </c>
       <c r="D13" t="n">
-        <v>207</v>
+        <v>873</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06553911205073996</v>
+        <v>-0.2642706131078224</v>
       </c>
     </row>
     <row r="14">
@@ -689,10 +689,10 @@
         <v>814</v>
       </c>
       <c r="D14" t="n">
-        <v>346</v>
+        <v>1444</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.05528255528255528</v>
       </c>
     </row>
     <row r="15">
@@ -708,10 +708,10 @@
         <v>4118</v>
       </c>
       <c r="D15" t="n">
-        <v>1665</v>
+        <v>7176</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04371053909664886</v>
+        <v>-0.1748421563865954</v>
       </c>
     </row>
     <row r="16">
@@ -727,10 +727,10 @@
         <v>1366</v>
       </c>
       <c r="D16" t="n">
-        <v>599</v>
+        <v>2519</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008052708638360176</v>
+        <v>0.03440702781844802</v>
       </c>
     </row>
     <row r="17">
@@ -746,10 +746,10 @@
         <v>2059</v>
       </c>
       <c r="D17" t="n">
-        <v>923</v>
+        <v>3845</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.07187955318115589</v>
+        <v>-0.2884895580378825</v>
       </c>
     </row>
     <row r="18">
@@ -765,10 +765,10 @@
         <v>488</v>
       </c>
       <c r="D18" t="n">
-        <v>232</v>
+        <v>964</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01639344262295082</v>
+        <v>-0.06557377049180328</v>
       </c>
     </row>
     <row r="19">
@@ -784,10 +784,10 @@
         <v>2418</v>
       </c>
       <c r="D19" t="n">
-        <v>1073</v>
+        <v>4550</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04631927212572374</v>
+        <v>-0.1861042183622829</v>
       </c>
     </row>
     <row r="20">
@@ -803,10 +803,10 @@
         <v>554</v>
       </c>
       <c r="D20" t="n">
-        <v>270</v>
+        <v>1161</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.05054151624548736</v>
+        <v>-0.2021660649819494</v>
       </c>
     </row>
     <row r="21">
@@ -822,10 +822,10 @@
         <v>1348</v>
       </c>
       <c r="D21" t="n">
-        <v>540</v>
+        <v>2229</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.008902077151335312</v>
+        <v>-0.0370919881305638</v>
       </c>
     </row>
     <row r="22">
@@ -841,10 +841,10 @@
         <v>1517</v>
       </c>
       <c r="D22" t="n">
-        <v>624</v>
+        <v>2592</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01779828609096902</v>
+        <v>-0.07185234014502308</v>
       </c>
     </row>
     <row r="23">
@@ -860,10 +860,10 @@
         <v>825</v>
       </c>
       <c r="D23" t="n">
-        <v>281</v>
+        <v>1202</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004848484848484848</v>
+        <v>0.02303030303030303</v>
       </c>
     </row>
     <row r="24">
@@ -879,10 +879,10 @@
         <v>1194</v>
       </c>
       <c r="D24" t="n">
-        <v>444</v>
+        <v>1911</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.02931323283082077</v>
+        <v>-0.1180904522613065</v>
       </c>
     </row>
     <row r="25">
@@ -898,10 +898,10 @@
         <v>746</v>
       </c>
       <c r="D25" t="n">
-        <v>340</v>
+        <v>1396</v>
       </c>
       <c r="E25" t="n">
-        <v>0.006702412868632708</v>
+        <v>0.02680965147453083</v>
       </c>
     </row>
     <row r="26">
@@ -917,10 +917,10 @@
         <v>1458</v>
       </c>
       <c r="D26" t="n">
-        <v>667</v>
+        <v>2872</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.04801097393689986</v>
+        <v>-0.1934156378600823</v>
       </c>
     </row>
     <row r="27">
@@ -936,10 +936,10 @@
         <v>745</v>
       </c>
       <c r="D27" t="n">
-        <v>275</v>
+        <v>1208</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.01879194630872483</v>
+        <v>-0.07919463087248323</v>
       </c>
     </row>
     <row r="28">
@@ -955,10 +955,10 @@
         <v>805</v>
       </c>
       <c r="D28" t="n">
-        <v>359</v>
+        <v>1580</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.06956521739130435</v>
+        <v>-0.2807453416149068</v>
       </c>
     </row>
     <row r="29">
@@ -974,10 +974,10 @@
         <v>1247</v>
       </c>
       <c r="D29" t="n">
-        <v>543</v>
+        <v>2415</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.08981555733761026</v>
+        <v>-0.3592622293504411</v>
       </c>
     </row>
     <row r="30">
@@ -993,10 +993,10 @@
         <v>4141</v>
       </c>
       <c r="D30" t="n">
-        <v>1534</v>
+        <v>6469</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01134991547935281</v>
+        <v>0.04612412460758271</v>
       </c>
     </row>
     <row r="31">
@@ -1012,10 +1012,10 @@
         <v>415</v>
       </c>
       <c r="D31" t="n">
-        <v>172</v>
+        <v>760</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.05060240963855422</v>
+        <v>-0.2048192771084337</v>
       </c>
     </row>
     <row r="32">
@@ -1031,10 +1031,10 @@
         <v>2051</v>
       </c>
       <c r="D32" t="n">
-        <v>696</v>
+        <v>2997</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.01218917601170161</v>
+        <v>-0.04973183812774257</v>
       </c>
     </row>
     <row r="33">
@@ -1050,10 +1050,10 @@
         <v>821</v>
       </c>
       <c r="D33" t="n">
-        <v>364</v>
+        <v>1651</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0389768574908648</v>
+        <v>-0.1559074299634592</v>
       </c>
     </row>
     <row r="34">
@@ -1069,10 +1069,10 @@
         <v>1666</v>
       </c>
       <c r="D34" t="n">
-        <v>690</v>
+        <v>2865</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.05402160864345738</v>
+        <v>-0.2178871548619448</v>
       </c>
     </row>
     <row r="35">
@@ -1088,10 +1088,10 @@
         <v>1078</v>
       </c>
       <c r="D35" t="n">
-        <v>436</v>
+        <v>1921</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0287569573283859</v>
+        <v>-0.1150278293135436</v>
       </c>
     </row>
     <row r="36">
@@ -1107,10 +1107,10 @@
         <v>1191</v>
       </c>
       <c r="D36" t="n">
-        <v>372</v>
+        <v>1641</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01175482787573468</v>
+        <v>0.04869857262804366</v>
       </c>
     </row>
     <row r="37">
@@ -1126,10 +1126,10 @@
         <v>1546</v>
       </c>
       <c r="D37" t="n">
-        <v>660</v>
+        <v>2829</v>
       </c>
       <c r="E37" t="n">
-        <v>0.007761966364812419</v>
+        <v>0.03104786545924968</v>
       </c>
     </row>
     <row r="38">
@@ -1145,10 +1145,10 @@
         <v>408</v>
       </c>
       <c r="D38" t="n">
-        <v>174</v>
+        <v>726</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.05392156862745098</v>
+        <v>-0.2156862745098039</v>
       </c>
     </row>
     <row r="39">
@@ -1164,10 +1164,10 @@
         <v>1795</v>
       </c>
       <c r="D39" t="n">
-        <v>776</v>
+        <v>3266</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.0701949860724234</v>
+        <v>-0.2807799442896936</v>
       </c>
     </row>
     <row r="40">
@@ -1183,10 +1183,10 @@
         <v>2038</v>
       </c>
       <c r="D40" t="n">
-        <v>799</v>
+        <v>3367</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.04416094210009813</v>
+        <v>-0.1776251226692836</v>
       </c>
     </row>
     <row r="41">
@@ -1202,10 +1202,10 @@
         <v>1157</v>
       </c>
       <c r="D41" t="n">
-        <v>478</v>
+        <v>2083</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.01382886776145203</v>
+        <v>-0.05617977528089887</v>
       </c>
     </row>
   </sheetData>
